--- a/biology/Microbiologie/Coprothermobacterota/Coprothermobacterota.xlsx
+++ b/biology/Microbiologie/Coprothermobacterota/Coprothermobacterota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coprothermobacterota forment un phylum de bactéries anaérobies et thermophiles. Ce phylum ne contient que la seule classe des Coprothermobacteria et est monotypique jusqu'au genre Coprothermobacter.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit en 2018 sous le nom de Coprothermobacterota mais publié de manière non valide[2], ce taxon a été republié en 2021 pour se conformer aux règles de nomenclature de l'ICSP [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 2018 sous le nom de Coprothermobacterota mais publié de manière non valide, ce taxon a été republié en 2021 pour se conformer aux règles de nomenclature de l'ICSP .
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de Coprothermobacterota est la suivante : Co.pro.ther.mo.bac.te.ro’ta N.L. masc. n. Coprothermobacter, genre type de la classe type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour designer un phylum; N.L. neut. pl. n. Coprothermobacterota, le phylum des Coprothermobacter[1],[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Coprothermobacterota est la suivante : Co.pro.ther.mo.bac.te.ro’ta N.L. masc. n. Coprothermobacter, genre type de la classe type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour designer un phylum; N.L. neut. pl. n. Coprothermobacterota, le phylum des Coprothermobacter,.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (12 novembre 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (12 novembre 2022) :
 genre Coprothermobacter Rainey et Stackebrandt 1993
 espèce Coprothermobacter proteolyticus (Ollivier et al. 1985) Rainey et Stackebrandt 1993
 espèce Coprothermobacter platensis Etchebehere et al. 1998</t>
